--- a/CollineSingleUserTest/colsel/TestData/Login.xlsx
+++ b/CollineSingleUserTest/colsel/TestData/Login.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -25,20 +26,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>http://54.193.33.252:8080/colline/</t>
+    <t>sa</t>
   </si>
   <si>
-    <t>sa4</t>
+    <t>http://172.20.20.90:8080/colline/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,17 +70,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,7 +413,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,17 +434,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>